--- a/LLM_Test/Summarised_output_for_model_v3.xlsx
+++ b/LLM_Test/Summarised_output_for_model_v3.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ssicsync\LLM_Test\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE6CC1D-6DAC-4C86-BEB4-388C7C2DB582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -2777,8 +2783,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2795,12 +2801,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -2830,24 +2848,40 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2885,7 +2919,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -2919,6 +2953,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2953,9 +2988,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3128,18 +3164,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="31.85546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="50.7109375" style="5" customWidth="1"/>
+    <col min="11" max="11" width="53.42578125" style="5" customWidth="1"/>
+    <col min="12" max="12" width="42.7109375" style="5" customWidth="1"/>
+    <col min="13" max="13" width="32" style="5" customWidth="1"/>
+    <col min="14" max="14" width="34.7109375" style="5" customWidth="1"/>
+    <col min="15" max="15" width="48.140625" style="3" customWidth="1"/>
+    <col min="16" max="16" width="51" style="3" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -3148,7 +3196,7 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -3166,30 +3214,30 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>103</v>
       </c>
       <c r="C2" t="s">
@@ -3198,7 +3246,7 @@
       <c r="D2" t="s">
         <v>215</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="5" t="s">
         <v>302</v>
       </c>
       <c r="F2" t="s">
@@ -3216,30 +3264,30 @@
       <c r="J2" t="s">
         <v>482</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="5" t="s">
         <v>484</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="5" t="s">
         <v>558</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="5" t="s">
         <v>558</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="5" t="s">
         <v>624</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" s="3" t="s">
         <v>698</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P2" s="3" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>104</v>
       </c>
       <c r="C3" t="s">
@@ -3248,7 +3296,7 @@
       <c r="D3" t="s">
         <v>216</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="5" t="s">
         <v>303</v>
       </c>
       <c r="F3" t="s">
@@ -3266,30 +3314,30 @@
       <c r="J3" t="s">
         <v>482</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="5" t="s">
         <v>485</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="5" t="s">
         <v>485</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="5" t="s">
         <v>485</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3" s="5" t="s">
         <v>625</v>
       </c>
-      <c r="O3" t="s">
+      <c r="O3" s="3" t="s">
         <v>698</v>
       </c>
-      <c r="P3" t="s">
+      <c r="P3" s="3" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>18</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>105</v>
       </c>
       <c r="C4" t="s">
@@ -3298,7 +3346,7 @@
       <c r="D4" t="s">
         <v>217</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="5" t="s">
         <v>304</v>
       </c>
       <c r="F4" t="s">
@@ -3316,30 +3364,30 @@
       <c r="J4" t="s">
         <v>482</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="5" t="s">
         <v>486</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="5" t="s">
         <v>486</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" s="5" t="s">
         <v>486</v>
       </c>
-      <c r="N4" t="s">
+      <c r="N4" s="5" t="s">
         <v>626</v>
       </c>
-      <c r="O4" t="s">
+      <c r="O4" s="3" t="s">
         <v>699</v>
       </c>
-      <c r="P4" t="s">
+      <c r="P4" s="3" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>19</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>106</v>
       </c>
       <c r="C5" t="s">
@@ -3348,7 +3396,7 @@
       <c r="D5" t="s">
         <v>218</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="5" t="s">
         <v>305</v>
       </c>
       <c r="F5" t="s">
@@ -3366,30 +3414,30 @@
       <c r="J5" t="s">
         <v>482</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="N5" t="s">
+      <c r="N5" s="5" t="s">
         <v>627</v>
       </c>
-      <c r="O5" t="s">
+      <c r="O5" s="3" t="s">
         <v>700</v>
       </c>
-      <c r="P5" t="s">
+      <c r="P5" s="3" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>107</v>
       </c>
       <c r="C6" t="s">
@@ -3398,7 +3446,7 @@
       <c r="D6" t="s">
         <v>219</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="5" t="s">
         <v>306</v>
       </c>
       <c r="F6" t="s">
@@ -3416,30 +3464,30 @@
       <c r="J6" t="s">
         <v>482</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M6" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="N6" t="s">
+      <c r="N6" s="5" t="s">
         <v>628</v>
       </c>
-      <c r="O6" t="s">
+      <c r="O6" s="3" t="s">
         <v>701</v>
       </c>
-      <c r="P6" t="s">
+      <c r="P6" s="3" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>108</v>
       </c>
       <c r="C7" t="s">
@@ -3448,7 +3496,7 @@
       <c r="D7" t="s">
         <v>220</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="5" t="s">
         <v>307</v>
       </c>
       <c r="F7" t="s">
@@ -3466,30 +3514,30 @@
       <c r="J7" t="s">
         <v>482</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M7" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="N7" t="s">
+      <c r="N7" s="5" t="s">
         <v>627</v>
       </c>
-      <c r="O7" t="s">
+      <c r="O7" s="3" t="s">
         <v>702</v>
       </c>
-      <c r="P7" t="s">
+      <c r="P7" s="3" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>109</v>
       </c>
       <c r="C8" t="s">
@@ -3498,7 +3546,7 @@
       <c r="D8" t="s">
         <v>221</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="5" t="s">
         <v>308</v>
       </c>
       <c r="F8" t="s">
@@ -3516,30 +3564,30 @@
       <c r="J8" t="s">
         <v>482</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="5" t="s">
         <v>488</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L8" s="5" t="s">
         <v>488</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M8" s="5" t="s">
         <v>488</v>
       </c>
-      <c r="N8" t="s">
+      <c r="N8" s="5" t="s">
         <v>627</v>
       </c>
-      <c r="O8" t="s">
+      <c r="O8" s="3" t="s">
         <v>703</v>
       </c>
-      <c r="P8" t="s">
+      <c r="P8" s="3" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>23</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
         <v>110</v>
       </c>
       <c r="C9" t="s">
@@ -3548,7 +3596,7 @@
       <c r="D9" t="s">
         <v>222</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="5" t="s">
         <v>309</v>
       </c>
       <c r="F9" t="s">
@@ -3566,30 +3614,30 @@
       <c r="J9" t="s">
         <v>482</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" s="5" t="s">
         <v>489</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L9" s="5" t="s">
         <v>489</v>
       </c>
-      <c r="M9" t="s">
+      <c r="M9" s="5" t="s">
         <v>489</v>
       </c>
-      <c r="N9" t="s">
+      <c r="N9" s="5" t="s">
         <v>629</v>
       </c>
-      <c r="O9" t="s">
+      <c r="O9" s="3" t="s">
         <v>704</v>
       </c>
-      <c r="P9" t="s">
+      <c r="P9" s="3" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>24</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="3" t="s">
         <v>111</v>
       </c>
       <c r="C10" t="s">
@@ -3598,7 +3646,7 @@
       <c r="D10" t="s">
         <v>223</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="5" t="s">
         <v>307</v>
       </c>
       <c r="F10" t="s">
@@ -3616,30 +3664,30 @@
       <c r="J10" t="s">
         <v>482</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L10" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="M10" t="s">
+      <c r="M10" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="N10" t="s">
+      <c r="N10" s="5" t="s">
         <v>627</v>
       </c>
-      <c r="O10" t="s">
+      <c r="O10" s="3" t="s">
         <v>705</v>
       </c>
-      <c r="P10" t="s">
+      <c r="P10" s="3" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>25</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="3" t="s">
         <v>112</v>
       </c>
       <c r="C11" t="s">
@@ -3648,7 +3696,7 @@
       <c r="D11" t="s">
         <v>224</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="5" t="s">
         <v>310</v>
       </c>
       <c r="F11" t="s">
@@ -3666,30 +3714,30 @@
       <c r="J11" t="s">
         <v>482</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K11" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="L11" t="s">
+      <c r="L11" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="M11" t="s">
+      <c r="M11" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="N11" t="s">
+      <c r="N11" s="5" t="s">
         <v>630</v>
       </c>
-      <c r="O11" t="s">
+      <c r="O11" s="3" t="s">
         <v>706</v>
       </c>
-      <c r="P11" t="s">
+      <c r="P11" s="3" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>26</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="3" t="s">
         <v>113</v>
       </c>
       <c r="C12" t="s">
@@ -3698,7 +3746,7 @@
       <c r="D12" t="s">
         <v>225</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="5" t="s">
         <v>311</v>
       </c>
       <c r="F12" t="s">
@@ -3716,30 +3764,30 @@
       <c r="J12" t="s">
         <v>483</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K12" s="5" t="s">
         <v>490</v>
       </c>
-      <c r="L12" t="s">
+      <c r="L12" s="5" t="s">
         <v>559</v>
       </c>
-      <c r="M12" t="s">
+      <c r="M12" s="5" t="s">
         <v>559</v>
       </c>
-      <c r="N12" t="s">
+      <c r="N12" s="5" t="s">
         <v>631</v>
       </c>
-      <c r="O12" t="s">
+      <c r="O12" s="3" t="s">
         <v>707</v>
       </c>
-      <c r="P12" t="s">
+      <c r="P12" s="3" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>27</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="3" t="s">
         <v>114</v>
       </c>
       <c r="C13" t="s">
@@ -3748,7 +3796,7 @@
       <c r="D13" t="s">
         <v>226</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="5" t="s">
         <v>312</v>
       </c>
       <c r="F13" t="s">
@@ -3766,30 +3814,30 @@
       <c r="J13" t="s">
         <v>482</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K13" s="5" t="s">
         <v>491</v>
       </c>
-      <c r="L13" t="s">
+      <c r="L13" s="5" t="s">
         <v>560</v>
       </c>
-      <c r="M13" t="s">
+      <c r="M13" s="5" t="s">
         <v>560</v>
       </c>
-      <c r="N13" t="s">
+      <c r="N13" s="5" t="s">
         <v>632</v>
       </c>
-      <c r="O13" t="s">
+      <c r="O13" s="3" t="s">
         <v>708</v>
       </c>
-      <c r="P13" t="s">
+      <c r="P13" s="3" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>28</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="3" t="s">
         <v>115</v>
       </c>
       <c r="C14" t="s">
@@ -3798,7 +3846,7 @@
       <c r="D14" t="s">
         <v>227</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="5" t="s">
         <v>313</v>
       </c>
       <c r="F14" t="s">
@@ -3816,30 +3864,30 @@
       <c r="J14" t="s">
         <v>482</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K14" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="L14" t="s">
+      <c r="L14" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="M14" t="s">
+      <c r="M14" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="N14" t="s">
+      <c r="N14" s="5" t="s">
         <v>630</v>
       </c>
-      <c r="O14" t="s">
+      <c r="O14" s="3" t="s">
         <v>709</v>
       </c>
-      <c r="P14" t="s">
+      <c r="P14" s="3" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>29</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="3" t="s">
         <v>116</v>
       </c>
       <c r="C15" t="s">
@@ -3848,7 +3896,7 @@
       <c r="D15" t="s">
         <v>228</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="5" t="s">
         <v>314</v>
       </c>
       <c r="F15" t="s">
@@ -3866,30 +3914,30 @@
       <c r="J15" t="s">
         <v>482</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K15" s="5" t="s">
         <v>492</v>
       </c>
-      <c r="L15" t="s">
+      <c r="L15" s="5" t="s">
         <v>492</v>
       </c>
-      <c r="M15" t="s">
+      <c r="M15" s="5" t="s">
         <v>492</v>
       </c>
-      <c r="N15" t="s">
+      <c r="N15" s="5" t="s">
         <v>633</v>
       </c>
-      <c r="O15" t="s">
+      <c r="O15" s="3" t="s">
         <v>710</v>
       </c>
-      <c r="P15" t="s">
+      <c r="P15" s="3" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>30</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="3" t="s">
         <v>117</v>
       </c>
       <c r="C16" t="s">
@@ -3898,7 +3946,7 @@
       <c r="D16" t="s">
         <v>229</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="5" t="s">
         <v>315</v>
       </c>
       <c r="F16" t="s">
@@ -3916,30 +3964,30 @@
       <c r="J16" t="s">
         <v>482</v>
       </c>
-      <c r="K16" t="s">
+      <c r="K16" s="5" t="s">
         <v>493</v>
       </c>
-      <c r="L16" t="s">
+      <c r="L16" s="5" t="s">
         <v>493</v>
       </c>
-      <c r="M16" t="s">
+      <c r="M16" s="5" t="s">
         <v>493</v>
       </c>
-      <c r="N16" t="s">
+      <c r="N16" s="5" t="s">
         <v>634</v>
       </c>
-      <c r="O16" t="s">
+      <c r="O16" s="3" t="s">
         <v>711</v>
       </c>
-      <c r="P16" t="s">
+      <c r="P16" s="3" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>31</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="3" t="s">
         <v>118</v>
       </c>
       <c r="C17" t="s">
@@ -3948,7 +3996,7 @@
       <c r="D17" t="s">
         <v>230</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="5" t="s">
         <v>316</v>
       </c>
       <c r="F17" t="s">
@@ -3966,30 +4014,30 @@
       <c r="J17" t="s">
         <v>483</v>
       </c>
-      <c r="K17" t="s">
+      <c r="K17" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="L17" t="s">
+      <c r="L17" s="5" t="s">
         <v>561</v>
       </c>
-      <c r="M17" t="s">
+      <c r="M17" s="5" t="s">
         <v>597</v>
       </c>
-      <c r="N17" t="s">
+      <c r="N17" s="5" t="s">
         <v>635</v>
       </c>
-      <c r="O17" t="s">
+      <c r="O17" s="3" t="s">
         <v>712</v>
       </c>
-      <c r="P17" t="s">
+      <c r="P17" s="3" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>32</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="3" t="s">
         <v>119</v>
       </c>
       <c r="C18" t="s">
@@ -3998,7 +4046,7 @@
       <c r="D18" t="s">
         <v>231</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="5" t="s">
         <v>317</v>
       </c>
       <c r="F18" t="s">
@@ -4016,30 +4064,30 @@
       <c r="J18" t="s">
         <v>483</v>
       </c>
-      <c r="K18" t="s">
+      <c r="K18" s="5" t="s">
         <v>495</v>
       </c>
-      <c r="L18" t="s">
+      <c r="L18" s="5" t="s">
         <v>562</v>
       </c>
-      <c r="M18" t="s">
+      <c r="M18" s="5" t="s">
         <v>598</v>
       </c>
-      <c r="N18" t="s">
+      <c r="N18" s="5" t="s">
         <v>636</v>
       </c>
-      <c r="O18" t="s">
+      <c r="O18" s="3" t="s">
         <v>713</v>
       </c>
-      <c r="P18" t="s">
+      <c r="P18" s="3" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>33</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="3" t="s">
         <v>120</v>
       </c>
       <c r="C19" t="s">
@@ -4048,7 +4096,7 @@
       <c r="D19" t="s">
         <v>232</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="5" t="s">
         <v>318</v>
       </c>
       <c r="F19" t="s">
@@ -4066,30 +4114,30 @@
       <c r="J19" t="s">
         <v>483</v>
       </c>
-      <c r="K19" t="s">
+      <c r="K19" s="5" t="s">
         <v>496</v>
       </c>
-      <c r="L19" t="s">
+      <c r="L19" s="5" t="s">
         <v>563</v>
       </c>
-      <c r="M19" t="s">
+      <c r="M19" s="5" t="s">
         <v>599</v>
       </c>
-      <c r="N19" t="s">
+      <c r="N19" s="5" t="s">
         <v>637</v>
       </c>
-      <c r="O19" t="s">
+      <c r="O19" s="3" t="s">
         <v>714</v>
       </c>
-      <c r="P19" t="s">
+      <c r="P19" s="3" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>34</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="3" t="s">
         <v>121</v>
       </c>
       <c r="C20" t="s">
@@ -4098,7 +4146,7 @@
       <c r="D20" t="s">
         <v>233</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="5" t="s">
         <v>319</v>
       </c>
       <c r="F20" t="s">
@@ -4116,30 +4164,30 @@
       <c r="J20" t="s">
         <v>483</v>
       </c>
-      <c r="K20" t="s">
+      <c r="K20" s="5" t="s">
         <v>497</v>
       </c>
-      <c r="L20" t="s">
+      <c r="L20" s="5" t="s">
         <v>564</v>
       </c>
-      <c r="M20" t="s">
+      <c r="M20" s="5" t="s">
         <v>600</v>
       </c>
-      <c r="N20" t="s">
+      <c r="N20" s="5" t="s">
         <v>638</v>
       </c>
-      <c r="O20" t="s">
+      <c r="O20" s="3" t="s">
         <v>715</v>
       </c>
-      <c r="P20" t="s">
+      <c r="P20" s="3" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>35</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="3" t="s">
         <v>122</v>
       </c>
       <c r="C21" t="s">
@@ -4148,7 +4196,7 @@
       <c r="D21" t="s">
         <v>234</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="5" t="s">
         <v>320</v>
       </c>
       <c r="F21" t="s">
@@ -4166,30 +4214,30 @@
       <c r="J21" t="s">
         <v>482</v>
       </c>
-      <c r="K21" t="s">
+      <c r="K21" s="5" t="s">
         <v>498</v>
       </c>
-      <c r="L21" t="s">
+      <c r="L21" s="5" t="s">
         <v>565</v>
       </c>
-      <c r="M21" t="s">
+      <c r="M21" s="5" t="s">
         <v>565</v>
       </c>
-      <c r="N21" t="s">
+      <c r="N21" s="5" t="s">
         <v>639</v>
       </c>
-      <c r="O21" t="s">
+      <c r="O21" s="3" t="s">
         <v>716</v>
       </c>
-      <c r="P21" t="s">
+      <c r="P21" s="3" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>36</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="3" t="s">
         <v>123</v>
       </c>
       <c r="C22" t="s">
@@ -4198,7 +4246,7 @@
       <c r="D22" t="s">
         <v>235</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="5" t="s">
         <v>321</v>
       </c>
       <c r="F22" t="s">
@@ -4216,30 +4264,30 @@
       <c r="J22" t="s">
         <v>482</v>
       </c>
-      <c r="K22" t="s">
+      <c r="K22" s="5" t="s">
         <v>499</v>
       </c>
-      <c r="L22" t="s">
+      <c r="L22" s="5" t="s">
         <v>499</v>
       </c>
-      <c r="M22" t="s">
+      <c r="M22" s="5" t="s">
         <v>499</v>
       </c>
-      <c r="N22" t="s">
+      <c r="N22" s="5" t="s">
         <v>640</v>
       </c>
-      <c r="O22" t="s">
+      <c r="O22" s="3" t="s">
         <v>717</v>
       </c>
-      <c r="P22" t="s">
+      <c r="P22" s="3" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>37</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="3" t="s">
         <v>124</v>
       </c>
       <c r="C23" t="s">
@@ -4248,7 +4296,7 @@
       <c r="D23" t="s">
         <v>236</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="5" t="s">
         <v>322</v>
       </c>
       <c r="F23" t="s">
@@ -4266,30 +4314,30 @@
       <c r="J23" t="s">
         <v>483</v>
       </c>
-      <c r="K23" t="s">
+      <c r="K23" s="5" t="s">
         <v>500</v>
       </c>
-      <c r="L23" t="s">
+      <c r="L23" s="5" t="s">
         <v>566</v>
       </c>
-      <c r="M23" t="s">
+      <c r="M23" s="5" t="s">
         <v>601</v>
       </c>
-      <c r="N23" t="s">
+      <c r="N23" s="5" t="s">
         <v>641</v>
       </c>
-      <c r="O23" t="s">
+      <c r="O23" s="3" t="s">
         <v>718</v>
       </c>
-      <c r="P23" t="s">
+      <c r="P23" s="3" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>38</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="3" t="s">
         <v>125</v>
       </c>
       <c r="C24" t="s">
@@ -4298,7 +4346,7 @@
       <c r="D24" t="s">
         <v>237</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="5" t="s">
         <v>323</v>
       </c>
       <c r="F24" t="s">
@@ -4316,30 +4364,30 @@
       <c r="J24" t="s">
         <v>482</v>
       </c>
-      <c r="K24" t="s">
+      <c r="K24" s="5" t="s">
         <v>501</v>
       </c>
-      <c r="L24" t="s">
+      <c r="L24" s="5" t="s">
         <v>501</v>
       </c>
-      <c r="M24" t="s">
+      <c r="M24" s="5" t="s">
         <v>501</v>
       </c>
-      <c r="N24" t="s">
+      <c r="N24" s="5" t="s">
         <v>642</v>
       </c>
-      <c r="O24" t="s">
+      <c r="O24" s="3" t="s">
         <v>719</v>
       </c>
-      <c r="P24" t="s">
+      <c r="P24" s="3" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>39</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="3" t="s">
         <v>126</v>
       </c>
       <c r="C25" t="s">
@@ -4348,7 +4396,7 @@
       <c r="D25" t="s">
         <v>238</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="5" t="s">
         <v>324</v>
       </c>
       <c r="F25" t="s">
@@ -4366,30 +4414,30 @@
       <c r="J25" t="s">
         <v>483</v>
       </c>
-      <c r="K25" t="s">
+      <c r="K25" s="5" t="s">
         <v>502</v>
       </c>
-      <c r="L25" t="s">
+      <c r="L25" s="5" t="s">
         <v>567</v>
       </c>
-      <c r="M25" t="s">
+      <c r="M25" s="5" t="s">
         <v>602</v>
       </c>
-      <c r="N25" t="s">
+      <c r="N25" s="5" t="s">
         <v>643</v>
       </c>
-      <c r="O25" t="s">
+      <c r="O25" s="3" t="s">
         <v>720</v>
       </c>
-      <c r="P25" t="s">
+      <c r="P25" s="3" t="s">
         <v>798</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>40</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="3" t="s">
         <v>127</v>
       </c>
       <c r="C26" t="s">
@@ -4398,7 +4446,7 @@
       <c r="D26" t="s">
         <v>239</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="5" t="s">
         <v>325</v>
       </c>
       <c r="F26" t="s">
@@ -4416,30 +4464,30 @@
       <c r="J26" t="s">
         <v>482</v>
       </c>
-      <c r="K26" t="s">
+      <c r="K26" s="5" t="s">
         <v>503</v>
       </c>
-      <c r="L26" t="s">
+      <c r="L26" s="5" t="s">
         <v>503</v>
       </c>
-      <c r="M26" t="s">
+      <c r="M26" s="5" t="s">
         <v>503</v>
       </c>
-      <c r="N26" t="s">
+      <c r="N26" s="5" t="s">
         <v>644</v>
       </c>
-      <c r="O26" t="s">
+      <c r="O26" s="3" t="s">
         <v>721</v>
       </c>
-      <c r="P26" t="s">
+      <c r="P26" s="3" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>41</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="3" t="s">
         <v>128</v>
       </c>
       <c r="C27" t="s">
@@ -4448,7 +4496,7 @@
       <c r="D27" t="s">
         <v>240</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="5" t="s">
         <v>326</v>
       </c>
       <c r="F27" t="s">
@@ -4466,30 +4514,30 @@
       <c r="J27" t="s">
         <v>483</v>
       </c>
-      <c r="K27" t="s">
+      <c r="K27" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="L27" t="s">
+      <c r="L27" s="5" t="s">
         <v>568</v>
       </c>
-      <c r="M27" t="s">
+      <c r="M27" s="5" t="s">
         <v>603</v>
       </c>
-      <c r="N27" t="s">
+      <c r="N27" s="5" t="s">
         <v>645</v>
       </c>
-      <c r="O27" t="s">
+      <c r="O27" s="3" t="s">
         <v>722</v>
       </c>
-      <c r="P27" t="s">
+      <c r="P27" s="3" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>42</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="3" t="s">
         <v>129</v>
       </c>
       <c r="C28" t="s">
@@ -4498,7 +4546,7 @@
       <c r="D28" t="s">
         <v>241</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="5" t="s">
         <v>313</v>
       </c>
       <c r="F28" t="s">
@@ -4516,30 +4564,30 @@
       <c r="J28" t="s">
         <v>482</v>
       </c>
-      <c r="K28" t="s">
+      <c r="K28" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="L28" t="s">
+      <c r="L28" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="M28" t="s">
+      <c r="M28" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="N28" t="s">
+      <c r="N28" s="5" t="s">
         <v>630</v>
       </c>
-      <c r="O28" t="s">
+      <c r="O28" s="3" t="s">
         <v>723</v>
       </c>
-      <c r="P28" t="s">
+      <c r="P28" s="3" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>43</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="3" t="s">
         <v>130</v>
       </c>
       <c r="C29" t="s">
@@ -4548,7 +4596,7 @@
       <c r="D29" t="s">
         <v>242</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="5" t="s">
         <v>327</v>
       </c>
       <c r="F29" t="s">
@@ -4566,30 +4614,30 @@
       <c r="J29" t="s">
         <v>482</v>
       </c>
-      <c r="K29" t="s">
+      <c r="K29" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="L29" t="s">
+      <c r="L29" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="M29" t="s">
+      <c r="M29" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="N29" t="s">
+      <c r="N29" s="5" t="s">
         <v>646</v>
       </c>
-      <c r="O29" t="s">
+      <c r="O29" s="3" t="s">
         <v>698</v>
       </c>
-      <c r="P29" t="s">
+      <c r="P29" s="3" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>44</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="3" t="s">
         <v>131</v>
       </c>
       <c r="C30" t="s">
@@ -4598,7 +4646,7 @@
       <c r="D30" t="s">
         <v>243</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="5" t="s">
         <v>328</v>
       </c>
       <c r="F30" t="s">
@@ -4616,30 +4664,30 @@
       <c r="J30" t="s">
         <v>483</v>
       </c>
-      <c r="K30" t="s">
+      <c r="K30" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="L30" t="s">
+      <c r="L30" s="5" t="s">
         <v>569</v>
       </c>
-      <c r="M30" t="s">
+      <c r="M30" s="5" t="s">
         <v>604</v>
       </c>
-      <c r="N30" t="s">
+      <c r="N30" s="5" t="s">
         <v>647</v>
       </c>
-      <c r="O30" t="s">
+      <c r="O30" s="3" t="s">
         <v>724</v>
       </c>
-      <c r="P30" t="s">
+      <c r="P30" s="3" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>45</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="3" t="s">
         <v>132</v>
       </c>
       <c r="C31" t="s">
@@ -4648,7 +4696,7 @@
       <c r="D31" t="s">
         <v>244</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="5" t="s">
         <v>329</v>
       </c>
       <c r="F31" t="s">
@@ -4666,30 +4714,30 @@
       <c r="J31" t="s">
         <v>483</v>
       </c>
-      <c r="K31" t="s">
+      <c r="K31" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="L31" t="s">
+      <c r="L31" s="5" t="s">
         <v>570</v>
       </c>
-      <c r="M31" t="s">
+      <c r="M31" s="5" t="s">
         <v>605</v>
       </c>
-      <c r="N31" t="s">
+      <c r="N31" s="5" t="s">
         <v>648</v>
       </c>
-      <c r="O31" t="s">
+      <c r="O31" s="3" t="s">
         <v>725</v>
       </c>
-      <c r="P31" t="s">
+      <c r="P31" s="3" t="s">
         <v>802</v>
       </c>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>46</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="3" t="s">
         <v>133</v>
       </c>
       <c r="C32" t="s">
@@ -4698,7 +4746,7 @@
       <c r="D32" t="s">
         <v>245</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="5" t="s">
         <v>330</v>
       </c>
       <c r="F32" t="s">
@@ -4716,30 +4764,30 @@
       <c r="J32" t="s">
         <v>482</v>
       </c>
-      <c r="K32" t="s">
+      <c r="K32" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="L32" t="s">
+      <c r="L32" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="M32" t="s">
+      <c r="M32" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="N32" t="s">
+      <c r="N32" s="5" t="s">
         <v>649</v>
       </c>
-      <c r="O32" t="s">
+      <c r="O32" s="3" t="s">
         <v>726</v>
       </c>
-      <c r="P32" t="s">
+      <c r="P32" s="3" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="33" spans="1:16">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>47</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="3" t="s">
         <v>134</v>
       </c>
       <c r="C33" t="s">
@@ -4748,7 +4796,7 @@
       <c r="D33" t="s">
         <v>246</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="5" t="s">
         <v>331</v>
       </c>
       <c r="F33" t="s">
@@ -4766,30 +4814,30 @@
       <c r="J33" t="s">
         <v>482</v>
       </c>
-      <c r="K33" t="s">
+      <c r="K33" s="5" t="s">
         <v>509</v>
       </c>
-      <c r="L33" t="s">
+      <c r="L33" s="5" t="s">
         <v>509</v>
       </c>
-      <c r="M33" t="s">
+      <c r="M33" s="5" t="s">
         <v>509</v>
       </c>
-      <c r="N33" t="s">
+      <c r="N33" s="5" t="s">
         <v>650</v>
       </c>
-      <c r="O33" t="s">
+      <c r="O33" s="3" t="s">
         <v>727</v>
       </c>
-      <c r="P33" t="s">
+      <c r="P33" s="3" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>48</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="3" t="s">
         <v>135</v>
       </c>
       <c r="C34" t="s">
@@ -4798,7 +4846,7 @@
       <c r="D34" t="s">
         <v>247</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="5" t="s">
         <v>332</v>
       </c>
       <c r="F34" t="s">
@@ -4816,30 +4864,30 @@
       <c r="J34" t="s">
         <v>483</v>
       </c>
-      <c r="K34" t="s">
+      <c r="K34" s="5" t="s">
         <v>510</v>
       </c>
-      <c r="L34" t="s">
+      <c r="L34" s="5" t="s">
         <v>571</v>
       </c>
-      <c r="M34" t="s">
+      <c r="M34" s="5" t="s">
         <v>606</v>
       </c>
-      <c r="N34" t="s">
+      <c r="N34" s="5" t="s">
         <v>651</v>
       </c>
-      <c r="O34" t="s">
+      <c r="O34" s="3" t="s">
         <v>728</v>
       </c>
-      <c r="P34" t="s">
+      <c r="P34" s="3" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>49</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="3" t="s">
         <v>136</v>
       </c>
       <c r="C35" t="s">
@@ -4848,7 +4896,7 @@
       <c r="D35" t="s">
         <v>248</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="5" t="s">
         <v>333</v>
       </c>
       <c r="F35" t="s">
@@ -4866,30 +4914,30 @@
       <c r="J35" t="s">
         <v>482</v>
       </c>
-      <c r="K35" t="s">
+      <c r="K35" s="5" t="s">
         <v>511</v>
       </c>
-      <c r="L35" t="s">
+      <c r="L35" s="5" t="s">
         <v>511</v>
       </c>
-      <c r="M35" t="s">
+      <c r="M35" s="5" t="s">
         <v>511</v>
       </c>
-      <c r="N35" t="s">
+      <c r="N35" s="5" t="s">
         <v>652</v>
       </c>
-      <c r="O35" t="s">
+      <c r="O35" s="3" t="s">
         <v>729</v>
       </c>
-      <c r="P35" t="s">
+      <c r="P35" s="3" t="s">
         <v>806</v>
       </c>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>50</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="3" t="s">
         <v>137</v>
       </c>
       <c r="C36" t="s">
@@ -4898,7 +4946,7 @@
       <c r="D36" t="s">
         <v>249</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" s="5" t="s">
         <v>334</v>
       </c>
       <c r="F36" t="s">
@@ -4916,30 +4964,30 @@
       <c r="J36" t="s">
         <v>483</v>
       </c>
-      <c r="K36" t="s">
+      <c r="K36" s="5" t="s">
         <v>512</v>
       </c>
-      <c r="L36" t="s">
+      <c r="L36" s="5" t="s">
         <v>572</v>
       </c>
-      <c r="M36" t="s">
+      <c r="M36" s="5" t="s">
         <v>607</v>
       </c>
-      <c r="N36" t="s">
+      <c r="N36" s="5" t="s">
         <v>653</v>
       </c>
-      <c r="O36" t="s">
+      <c r="O36" s="3" t="s">
         <v>730</v>
       </c>
-      <c r="P36" t="s">
+      <c r="P36" s="3" t="s">
         <v>807</v>
       </c>
     </row>
-    <row r="37" spans="1:16">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>51</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="3" t="s">
         <v>138</v>
       </c>
       <c r="C37" t="s">
@@ -4948,7 +4996,7 @@
       <c r="D37" t="s">
         <v>250</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="5" t="s">
         <v>335</v>
       </c>
       <c r="F37" t="s">
@@ -4966,30 +5014,30 @@
       <c r="J37" t="s">
         <v>483</v>
       </c>
-      <c r="K37" t="s">
+      <c r="K37" s="5" t="s">
         <v>513</v>
       </c>
-      <c r="L37" t="s">
+      <c r="L37" s="5" t="s">
         <v>573</v>
       </c>
-      <c r="M37" t="s">
+      <c r="M37" s="5" t="s">
         <v>608</v>
       </c>
-      <c r="N37" t="s">
+      <c r="N37" s="5" t="s">
         <v>627</v>
       </c>
-      <c r="O37" t="s">
+      <c r="O37" s="3" t="s">
         <v>731</v>
       </c>
-      <c r="P37" t="s">
+      <c r="P37" s="3" t="s">
         <v>808</v>
       </c>
     </row>
-    <row r="38" spans="1:16">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>52</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="3" t="s">
         <v>139</v>
       </c>
       <c r="C38" t="s">
@@ -4998,7 +5046,7 @@
       <c r="D38" t="s">
         <v>251</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" s="5" t="s">
         <v>336</v>
       </c>
       <c r="F38" t="s">
@@ -5016,30 +5064,30 @@
       <c r="J38" t="s">
         <v>483</v>
       </c>
-      <c r="K38" t="s">
+      <c r="K38" s="5" t="s">
         <v>514</v>
       </c>
-      <c r="L38" t="s">
+      <c r="L38" s="5" t="s">
         <v>574</v>
       </c>
-      <c r="M38" t="s">
+      <c r="M38" s="5" t="s">
         <v>609</v>
       </c>
-      <c r="N38" t="s">
+      <c r="N38" s="5" t="s">
         <v>654</v>
       </c>
-      <c r="O38" t="s">
+      <c r="O38" s="3" t="s">
         <v>732</v>
       </c>
-      <c r="P38" t="s">
+      <c r="P38" s="3" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>53</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="3" t="s">
         <v>140</v>
       </c>
       <c r="C39" t="s">
@@ -5048,7 +5096,7 @@
       <c r="D39" t="s">
         <v>252</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" s="5" t="s">
         <v>337</v>
       </c>
       <c r="F39" t="s">
@@ -5066,30 +5114,30 @@
       <c r="J39" t="s">
         <v>482</v>
       </c>
-      <c r="K39" t="s">
+      <c r="K39" s="5" t="s">
         <v>515</v>
       </c>
-      <c r="L39" t="s">
+      <c r="L39" s="5" t="s">
         <v>515</v>
       </c>
-      <c r="M39" t="s">
+      <c r="M39" s="5" t="s">
         <v>515</v>
       </c>
-      <c r="N39" t="s">
+      <c r="N39" s="5" t="s">
         <v>655</v>
       </c>
-      <c r="O39" t="s">
+      <c r="O39" s="3" t="s">
         <v>733</v>
       </c>
-      <c r="P39" t="s">
+      <c r="P39" s="3" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="40" spans="1:16">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>54</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="3" t="s">
         <v>141</v>
       </c>
       <c r="C40" t="s">
@@ -5098,7 +5146,7 @@
       <c r="D40" t="s">
         <v>253</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" s="5" t="s">
         <v>338</v>
       </c>
       <c r="F40" t="s">
@@ -5116,30 +5164,30 @@
       <c r="J40" t="s">
         <v>482</v>
       </c>
-      <c r="K40" t="s">
+      <c r="K40" s="5" t="s">
         <v>516</v>
       </c>
-      <c r="L40" t="s">
+      <c r="L40" s="5" t="s">
         <v>516</v>
       </c>
-      <c r="M40" t="s">
+      <c r="M40" s="5" t="s">
         <v>516</v>
       </c>
-      <c r="N40" t="s">
+      <c r="N40" s="5" t="s">
         <v>656</v>
       </c>
-      <c r="O40" t="s">
+      <c r="O40" s="3" t="s">
         <v>698</v>
       </c>
-      <c r="P40" t="s">
+      <c r="P40" s="3" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="41" spans="1:16">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>55</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="3" t="s">
         <v>142</v>
       </c>
       <c r="C41" t="s">
@@ -5148,7 +5196,7 @@
       <c r="D41" t="s">
         <v>254</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" s="5" t="s">
         <v>339</v>
       </c>
       <c r="F41" t="s">
@@ -5166,30 +5214,30 @@
       <c r="J41" t="s">
         <v>482</v>
       </c>
-      <c r="K41" t="s">
+      <c r="K41" s="5" t="s">
         <v>517</v>
       </c>
-      <c r="L41" t="s">
+      <c r="L41" s="5" t="s">
         <v>575</v>
       </c>
-      <c r="M41" t="s">
+      <c r="M41" s="5" t="s">
         <v>575</v>
       </c>
-      <c r="N41" t="s">
+      <c r="N41" s="5" t="s">
         <v>657</v>
       </c>
-      <c r="O41" t="s">
+      <c r="O41" s="3" t="s">
         <v>698</v>
       </c>
-      <c r="P41" t="s">
+      <c r="P41" s="3" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>56</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="3" t="s">
         <v>143</v>
       </c>
       <c r="C42" t="s">
@@ -5198,7 +5246,7 @@
       <c r="D42" t="s">
         <v>255</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E42" s="5" t="s">
         <v>340</v>
       </c>
       <c r="F42" t="s">
@@ -5216,30 +5264,30 @@
       <c r="J42" t="s">
         <v>482</v>
       </c>
-      <c r="K42" t="s">
+      <c r="K42" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="L42" t="s">
+      <c r="L42" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="M42" t="s">
+      <c r="M42" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="N42" t="s">
+      <c r="N42" s="5" t="s">
         <v>627</v>
       </c>
-      <c r="O42" t="s">
+      <c r="O42" s="3" t="s">
         <v>734</v>
       </c>
-      <c r="P42" t="s">
+      <c r="P42" s="3" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="43" spans="1:16">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>57</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="3" t="s">
         <v>144</v>
       </c>
       <c r="C43" t="s">
@@ -5248,7 +5296,7 @@
       <c r="D43" t="s">
         <v>256</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E43" s="5" t="s">
         <v>313</v>
       </c>
       <c r="F43" t="s">
@@ -5266,30 +5314,30 @@
       <c r="J43" t="s">
         <v>482</v>
       </c>
-      <c r="K43" t="s">
+      <c r="K43" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="L43" t="s">
+      <c r="L43" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="M43" t="s">
+      <c r="M43" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="N43" t="s">
+      <c r="N43" s="5" t="s">
         <v>630</v>
       </c>
-      <c r="O43" t="s">
+      <c r="O43" s="3" t="s">
         <v>735</v>
       </c>
-      <c r="P43" t="s">
+      <c r="P43" s="3" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="44" spans="1:16">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>58</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="3" t="s">
         <v>145</v>
       </c>
       <c r="C44" t="s">
@@ -5298,7 +5346,7 @@
       <c r="D44" t="s">
         <v>257</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E44" s="5" t="s">
         <v>341</v>
       </c>
       <c r="F44" t="s">
@@ -5316,30 +5364,30 @@
       <c r="J44" t="s">
         <v>483</v>
       </c>
-      <c r="K44" t="s">
+      <c r="K44" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="L44" t="s">
+      <c r="L44" s="5" t="s">
         <v>576</v>
       </c>
-      <c r="M44" t="s">
+      <c r="M44" s="5" t="s">
         <v>610</v>
       </c>
-      <c r="N44" t="s">
+      <c r="N44" s="5" t="s">
         <v>658</v>
       </c>
-      <c r="O44" t="s">
+      <c r="O44" s="3" t="s">
         <v>736</v>
       </c>
-      <c r="P44" t="s">
+      <c r="P44" s="3" t="s">
         <v>813</v>
       </c>
     </row>
-    <row r="45" spans="1:16">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>59</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="3" t="s">
         <v>146</v>
       </c>
       <c r="C45" t="s">
@@ -5348,7 +5396,7 @@
       <c r="D45" t="s">
         <v>258</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E45" s="5" t="s">
         <v>342</v>
       </c>
       <c r="F45" t="s">
@@ -5366,30 +5414,30 @@
       <c r="J45" t="s">
         <v>482</v>
       </c>
-      <c r="K45" t="s">
+      <c r="K45" s="5" t="s">
         <v>519</v>
       </c>
-      <c r="L45" t="s">
+      <c r="L45" s="5" t="s">
         <v>519</v>
       </c>
-      <c r="M45" t="s">
+      <c r="M45" s="5" t="s">
         <v>519</v>
       </c>
-      <c r="N45" t="s">
+      <c r="N45" s="5" t="s">
         <v>659</v>
       </c>
-      <c r="O45" t="s">
+      <c r="O45" s="3" t="s">
         <v>698</v>
       </c>
-      <c r="P45" t="s">
+      <c r="P45" s="3" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="46" spans="1:16">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>60</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="3" t="s">
         <v>147</v>
       </c>
       <c r="C46" t="s">
@@ -5398,7 +5446,7 @@
       <c r="D46" t="s">
         <v>259</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E46" s="5" t="s">
         <v>343</v>
       </c>
       <c r="F46" t="s">
@@ -5416,30 +5464,30 @@
       <c r="J46" t="s">
         <v>483</v>
       </c>
-      <c r="K46" t="s">
+      <c r="K46" s="5" t="s">
         <v>520</v>
       </c>
-      <c r="L46" t="s">
+      <c r="L46" s="5" t="s">
         <v>577</v>
       </c>
-      <c r="M46" t="s">
+      <c r="M46" s="5" t="s">
         <v>611</v>
       </c>
-      <c r="N46" t="s">
+      <c r="N46" s="5" t="s">
         <v>660</v>
       </c>
-      <c r="O46" t="s">
+      <c r="O46" s="3" t="s">
         <v>737</v>
       </c>
-      <c r="P46" t="s">
+      <c r="P46" s="3" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="47" spans="1:16">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>61</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="3" t="s">
         <v>148</v>
       </c>
       <c r="C47" t="s">
@@ -5448,7 +5496,7 @@
       <c r="D47" t="s">
         <v>260</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E47" s="5" t="s">
         <v>344</v>
       </c>
       <c r="F47" t="s">
@@ -5466,30 +5514,30 @@
       <c r="J47" t="s">
         <v>482</v>
       </c>
-      <c r="K47" t="s">
+      <c r="K47" s="5" t="s">
         <v>521</v>
       </c>
-      <c r="L47" t="s">
+      <c r="L47" s="5" t="s">
         <v>521</v>
       </c>
-      <c r="M47" t="s">
+      <c r="M47" s="5" t="s">
         <v>521</v>
       </c>
-      <c r="N47" t="s">
+      <c r="N47" s="5" t="s">
         <v>661</v>
       </c>
-      <c r="O47" t="s">
+      <c r="O47" s="3" t="s">
         <v>738</v>
       </c>
-      <c r="P47" t="s">
+      <c r="P47" s="3" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="48" spans="1:16">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>62</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="3" t="s">
         <v>149</v>
       </c>
       <c r="C48" t="s">
@@ -5498,7 +5546,7 @@
       <c r="D48" t="s">
         <v>261</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E48" s="5" t="s">
         <v>337</v>
       </c>
       <c r="F48" t="s">
@@ -5516,30 +5564,30 @@
       <c r="J48" t="s">
         <v>482</v>
       </c>
-      <c r="K48" t="s">
+      <c r="K48" s="5" t="s">
         <v>515</v>
       </c>
-      <c r="L48" t="s">
+      <c r="L48" s="5" t="s">
         <v>515</v>
       </c>
-      <c r="M48" t="s">
+      <c r="M48" s="5" t="s">
         <v>515</v>
       </c>
-      <c r="N48" t="s">
+      <c r="N48" s="5" t="s">
         <v>655</v>
       </c>
-      <c r="O48" t="s">
+      <c r="O48" s="3" t="s">
         <v>739</v>
       </c>
-      <c r="P48" t="s">
+      <c r="P48" s="3" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="49" spans="1:16">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>63</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="3" t="s">
         <v>150</v>
       </c>
       <c r="C49" t="s">
@@ -5548,7 +5596,7 @@
       <c r="D49" t="s">
         <v>262</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E49" s="5" t="s">
         <v>345</v>
       </c>
       <c r="F49" t="s">
@@ -5566,30 +5614,30 @@
       <c r="J49" t="s">
         <v>483</v>
       </c>
-      <c r="K49" t="s">
+      <c r="K49" s="5" t="s">
         <v>522</v>
       </c>
-      <c r="L49" t="s">
+      <c r="L49" s="5" t="s">
         <v>578</v>
       </c>
-      <c r="M49" t="s">
+      <c r="M49" s="5" t="s">
         <v>612</v>
       </c>
-      <c r="N49" t="s">
+      <c r="N49" s="5" t="s">
         <v>662</v>
       </c>
-      <c r="O49" t="s">
+      <c r="O49" s="3" t="s">
         <v>740</v>
       </c>
-      <c r="P49" t="s">
+      <c r="P49" s="3" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="50" spans="1:16">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>64</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="3" t="s">
         <v>151</v>
       </c>
       <c r="C50" t="s">
@@ -5598,7 +5646,7 @@
       <c r="D50" t="s">
         <v>263</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E50" s="5" t="s">
         <v>346</v>
       </c>
       <c r="F50" t="s">
@@ -5616,30 +5664,30 @@
       <c r="J50" t="s">
         <v>482</v>
       </c>
-      <c r="K50" t="s">
+      <c r="K50" s="5" t="s">
         <v>523</v>
       </c>
-      <c r="L50" t="s">
+      <c r="L50" s="5" t="s">
         <v>523</v>
       </c>
-      <c r="M50" t="s">
+      <c r="M50" s="5" t="s">
         <v>523</v>
       </c>
-      <c r="N50" t="s">
+      <c r="N50" s="5" t="s">
         <v>663</v>
       </c>
-      <c r="O50" t="s">
+      <c r="O50" s="3" t="s">
         <v>741</v>
       </c>
-      <c r="P50" t="s">
+      <c r="P50" s="3" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="51" spans="1:16">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>65</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="3" t="s">
         <v>152</v>
       </c>
       <c r="C51" t="s">
@@ -5648,7 +5696,7 @@
       <c r="D51" t="s">
         <v>264</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E51" s="5" t="s">
         <v>347</v>
       </c>
       <c r="F51" t="s">
@@ -5666,30 +5714,30 @@
       <c r="J51" t="s">
         <v>483</v>
       </c>
-      <c r="K51" t="s">
+      <c r="K51" s="5" t="s">
         <v>524</v>
       </c>
-      <c r="L51" t="s">
+      <c r="L51" s="5" t="s">
         <v>579</v>
       </c>
-      <c r="M51" t="s">
+      <c r="M51" s="5" t="s">
         <v>613</v>
       </c>
-      <c r="N51" t="s">
+      <c r="N51" s="5" t="s">
         <v>664</v>
       </c>
-      <c r="O51" t="s">
+      <c r="O51" s="3" t="s">
         <v>742</v>
       </c>
-      <c r="P51" t="s">
+      <c r="P51" s="3" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="52" spans="1:16">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>66</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="3" t="s">
         <v>153</v>
       </c>
       <c r="C52" t="s">
@@ -5698,7 +5746,7 @@
       <c r="D52" t="s">
         <v>265</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E52" s="5" t="s">
         <v>348</v>
       </c>
       <c r="F52" t="s">
@@ -5716,30 +5764,30 @@
       <c r="J52" t="s">
         <v>483</v>
       </c>
-      <c r="K52" t="s">
+      <c r="K52" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="L52" t="s">
+      <c r="L52" s="5" t="s">
         <v>580</v>
       </c>
-      <c r="M52" t="s">
+      <c r="M52" s="5" t="s">
         <v>614</v>
       </c>
-      <c r="N52" t="s">
+      <c r="N52" s="5" t="s">
         <v>665</v>
       </c>
-      <c r="O52" t="s">
+      <c r="O52" s="3" t="s">
         <v>743</v>
       </c>
-      <c r="P52" t="s">
+      <c r="P52" s="3" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="53" spans="1:16">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>67</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="3" t="s">
         <v>154</v>
       </c>
       <c r="C53" t="s">
@@ -5748,7 +5796,7 @@
       <c r="D53" t="s">
         <v>266</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E53" s="5" t="s">
         <v>349</v>
       </c>
       <c r="F53" t="s">
@@ -5766,30 +5814,30 @@
       <c r="J53" t="s">
         <v>483</v>
       </c>
-      <c r="K53" t="s">
+      <c r="K53" s="5" t="s">
         <v>526</v>
       </c>
-      <c r="L53" t="s">
+      <c r="L53" s="5" t="s">
         <v>581</v>
       </c>
-      <c r="M53" t="s">
+      <c r="M53" s="5" t="s">
         <v>615</v>
       </c>
-      <c r="N53" t="s">
+      <c r="N53" s="5" t="s">
         <v>666</v>
       </c>
-      <c r="O53" t="s">
+      <c r="O53" s="3" t="s">
         <v>744</v>
       </c>
-      <c r="P53" t="s">
+      <c r="P53" s="3" t="s">
         <v>820</v>
       </c>
     </row>
-    <row r="54" spans="1:16">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>68</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="3" t="s">
         <v>155</v>
       </c>
       <c r="C54" t="s">
@@ -5798,7 +5846,7 @@
       <c r="D54" t="s">
         <v>267</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E54" s="5" t="s">
         <v>350</v>
       </c>
       <c r="F54" t="s">
@@ -5816,30 +5864,30 @@
       <c r="J54" t="s">
         <v>483</v>
       </c>
-      <c r="K54" t="s">
+      <c r="K54" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="L54" t="s">
+      <c r="L54" s="5" t="s">
         <v>582</v>
       </c>
-      <c r="M54" t="s">
+      <c r="M54" s="5" t="s">
         <v>616</v>
       </c>
-      <c r="N54" t="s">
+      <c r="N54" s="5" t="s">
         <v>667</v>
       </c>
-      <c r="O54" t="s">
+      <c r="O54" s="3" t="s">
         <v>745</v>
       </c>
-      <c r="P54" t="s">
+      <c r="P54" s="3" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="55" spans="1:16">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>69</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="3" t="s">
         <v>156</v>
       </c>
       <c r="C55" t="s">
@@ -5848,7 +5896,7 @@
       <c r="D55" t="s">
         <v>268</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E55" s="5" t="s">
         <v>351</v>
       </c>
       <c r="F55" t="s">
@@ -5866,30 +5914,30 @@
       <c r="J55" t="s">
         <v>483</v>
       </c>
-      <c r="K55" t="s">
+      <c r="K55" s="5" t="s">
         <v>528</v>
       </c>
-      <c r="L55" t="s">
+      <c r="L55" s="5" t="s">
         <v>583</v>
       </c>
-      <c r="M55" t="s">
+      <c r="M55" s="5" t="s">
         <v>528</v>
       </c>
-      <c r="N55" t="s">
+      <c r="N55" s="5" t="s">
         <v>668</v>
       </c>
-      <c r="O55" t="s">
+      <c r="O55" s="3" t="s">
         <v>746</v>
       </c>
-      <c r="P55" t="s">
+      <c r="P55" s="3" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="56" spans="1:16">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>70</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="3" t="s">
         <v>157</v>
       </c>
       <c r="C56" t="s">
@@ -5898,7 +5946,7 @@
       <c r="D56" t="s">
         <v>269</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E56" s="5" t="s">
         <v>352</v>
       </c>
       <c r="F56" t="s">
@@ -5916,30 +5964,30 @@
       <c r="J56" t="s">
         <v>483</v>
       </c>
-      <c r="K56" t="s">
+      <c r="K56" s="5" t="s">
         <v>529</v>
       </c>
-      <c r="L56" t="s">
+      <c r="L56" s="5" t="s">
         <v>584</v>
       </c>
-      <c r="M56" t="s">
+      <c r="M56" s="5" t="s">
         <v>529</v>
       </c>
-      <c r="N56" t="s">
+      <c r="N56" s="5" t="s">
         <v>669</v>
       </c>
-      <c r="O56" t="s">
+      <c r="O56" s="3" t="s">
         <v>747</v>
       </c>
-      <c r="P56" t="s">
+      <c r="P56" s="3" t="s">
         <v>822</v>
       </c>
     </row>
-    <row r="57" spans="1:16">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>71</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="3" t="s">
         <v>158</v>
       </c>
       <c r="C57" t="s">
@@ -5948,7 +5996,7 @@
       <c r="D57" t="s">
         <v>270</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E57" s="5" t="s">
         <v>353</v>
       </c>
       <c r="F57" t="s">
@@ -5966,30 +6014,30 @@
       <c r="J57" t="s">
         <v>482</v>
       </c>
-      <c r="K57" t="s">
+      <c r="K57" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="L57" t="s">
+      <c r="L57" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="M57" t="s">
+      <c r="M57" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="N57" t="s">
+      <c r="N57" s="5" t="s">
         <v>627</v>
       </c>
-      <c r="O57" t="s">
+      <c r="O57" s="3" t="s">
         <v>748</v>
       </c>
-      <c r="P57" t="s">
+      <c r="P57" s="3" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="58" spans="1:16">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>72</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="3" t="s">
         <v>159</v>
       </c>
       <c r="C58" t="s">
@@ -5998,7 +6046,7 @@
       <c r="D58" t="s">
         <v>271</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E58" s="5" t="s">
         <v>354</v>
       </c>
       <c r="F58" t="s">
@@ -6016,30 +6064,30 @@
       <c r="J58" t="s">
         <v>482</v>
       </c>
-      <c r="K58" t="s">
+      <c r="K58" s="5" t="s">
         <v>530</v>
       </c>
-      <c r="L58" t="s">
+      <c r="L58" s="5" t="s">
         <v>530</v>
       </c>
-      <c r="M58" t="s">
+      <c r="M58" s="5" t="s">
         <v>530</v>
       </c>
-      <c r="N58" t="s">
+      <c r="N58" s="5" t="s">
         <v>670</v>
       </c>
-      <c r="O58" t="s">
+      <c r="O58" s="3" t="s">
         <v>749</v>
       </c>
-      <c r="P58" t="s">
+      <c r="P58" s="3" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="59" spans="1:16">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>73</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="3" t="s">
         <v>160</v>
       </c>
       <c r="C59" t="s">
@@ -6048,7 +6096,7 @@
       <c r="D59" t="s">
         <v>272</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E59" s="5" t="s">
         <v>355</v>
       </c>
       <c r="F59" t="s">
@@ -6066,30 +6114,30 @@
       <c r="J59" t="s">
         <v>483</v>
       </c>
-      <c r="K59" t="s">
+      <c r="K59" s="5" t="s">
         <v>531</v>
       </c>
-      <c r="L59" t="s">
+      <c r="L59" s="5" t="s">
         <v>585</v>
       </c>
-      <c r="M59" t="s">
+      <c r="M59" s="5" t="s">
         <v>617</v>
       </c>
-      <c r="N59" t="s">
+      <c r="N59" s="5" t="s">
         <v>671</v>
       </c>
-      <c r="O59" t="s">
+      <c r="O59" s="3" t="s">
         <v>750</v>
       </c>
-      <c r="P59" t="s">
+      <c r="P59" s="3" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="60" spans="1:16">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>74</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="3" t="s">
         <v>161</v>
       </c>
       <c r="C60" t="s">
@@ -6098,7 +6146,7 @@
       <c r="D60" t="s">
         <v>273</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E60" s="5" t="s">
         <v>356</v>
       </c>
       <c r="F60" t="s">
@@ -6116,30 +6164,30 @@
       <c r="J60" t="s">
         <v>482</v>
       </c>
-      <c r="K60" t="s">
+      <c r="K60" s="5" t="s">
         <v>515</v>
       </c>
-      <c r="L60" t="s">
+      <c r="L60" s="5" t="s">
         <v>515</v>
       </c>
-      <c r="M60" t="s">
+      <c r="M60" s="5" t="s">
         <v>515</v>
       </c>
-      <c r="N60" t="s">
+      <c r="N60" s="5" t="s">
         <v>672</v>
       </c>
-      <c r="O60" t="s">
+      <c r="O60" s="3" t="s">
         <v>751</v>
       </c>
-      <c r="P60" t="s">
+      <c r="P60" s="3" t="s">
         <v>826</v>
       </c>
     </row>
-    <row r="61" spans="1:16">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>75</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="3" t="s">
         <v>162</v>
       </c>
       <c r="C61" t="s">
@@ -6148,7 +6196,7 @@
       <c r="D61" t="s">
         <v>274</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E61" s="5" t="s">
         <v>357</v>
       </c>
       <c r="F61" t="s">
@@ -6166,30 +6214,30 @@
       <c r="J61" t="s">
         <v>482</v>
       </c>
-      <c r="K61" t="s">
+      <c r="K61" s="5" t="s">
         <v>532</v>
       </c>
-      <c r="L61" t="s">
+      <c r="L61" s="5" t="s">
         <v>586</v>
       </c>
-      <c r="M61" t="s">
+      <c r="M61" s="5" t="s">
         <v>586</v>
       </c>
-      <c r="N61" t="s">
+      <c r="N61" s="5" t="s">
         <v>673</v>
       </c>
-      <c r="O61" t="s">
+      <c r="O61" s="3" t="s">
         <v>752</v>
       </c>
-      <c r="P61" t="s">
+      <c r="P61" s="3" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="62" spans="1:16">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>76</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="3" t="s">
         <v>163</v>
       </c>
       <c r="C62" t="s">
@@ -6198,7 +6246,7 @@
       <c r="D62" t="s">
         <v>275</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E62" s="5" t="s">
         <v>358</v>
       </c>
       <c r="F62" t="s">
@@ -6216,30 +6264,30 @@
       <c r="J62" t="s">
         <v>482</v>
       </c>
-      <c r="K62" t="s">
+      <c r="K62" s="5" t="s">
         <v>533</v>
       </c>
-      <c r="L62" t="s">
+      <c r="L62" s="5" t="s">
         <v>587</v>
       </c>
-      <c r="M62" t="s">
+      <c r="M62" s="5" t="s">
         <v>587</v>
       </c>
-      <c r="N62" t="s">
+      <c r="N62" s="5" t="s">
         <v>674</v>
       </c>
-      <c r="O62" t="s">
+      <c r="O62" s="3" t="s">
         <v>753</v>
       </c>
-      <c r="P62" t="s">
+      <c r="P62" s="3" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="63" spans="1:16">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>77</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="3" t="s">
         <v>164</v>
       </c>
       <c r="C63" t="s">
@@ -6248,7 +6296,7 @@
       <c r="D63" t="s">
         <v>276</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E63" s="5" t="s">
         <v>359</v>
       </c>
       <c r="F63" t="s">
@@ -6266,30 +6314,30 @@
       <c r="J63" t="s">
         <v>483</v>
       </c>
-      <c r="K63" t="s">
+      <c r="K63" s="5" t="s">
         <v>534</v>
       </c>
-      <c r="L63" t="s">
+      <c r="L63" s="5" t="s">
         <v>588</v>
       </c>
-      <c r="M63" t="s">
+      <c r="M63" s="5" t="s">
         <v>618</v>
       </c>
-      <c r="N63" t="s">
+      <c r="N63" s="5" t="s">
         <v>675</v>
       </c>
-      <c r="O63" t="s">
+      <c r="O63" s="3" t="s">
         <v>754</v>
       </c>
-      <c r="P63" t="s">
+      <c r="P63" s="3" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="64" spans="1:16">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>78</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="3" t="s">
         <v>165</v>
       </c>
       <c r="C64" t="s">
@@ -6298,7 +6346,7 @@
       <c r="D64" t="s">
         <v>277</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E64" s="5" t="s">
         <v>360</v>
       </c>
       <c r="F64" t="s">
@@ -6316,30 +6364,30 @@
       <c r="J64" t="s">
         <v>482</v>
       </c>
-      <c r="K64" t="s">
+      <c r="K64" s="5" t="s">
         <v>535</v>
       </c>
-      <c r="L64" t="s">
+      <c r="L64" s="5" t="s">
         <v>535</v>
       </c>
-      <c r="M64" t="s">
+      <c r="M64" s="5" t="s">
         <v>535</v>
       </c>
-      <c r="N64" t="s">
+      <c r="N64" s="5" t="s">
         <v>676</v>
       </c>
-      <c r="O64" t="s">
+      <c r="O64" s="3" t="s">
         <v>755</v>
       </c>
-      <c r="P64" t="s">
+      <c r="P64" s="3" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="65" spans="1:16">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>79</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="3" t="s">
         <v>166</v>
       </c>
       <c r="C65" t="s">
@@ -6348,7 +6396,7 @@
       <c r="D65" t="s">
         <v>278</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E65" s="5" t="s">
         <v>361</v>
       </c>
       <c r="F65" t="s">
@@ -6366,30 +6414,30 @@
       <c r="J65" t="s">
         <v>482</v>
       </c>
-      <c r="K65" t="s">
+      <c r="K65" s="5" t="s">
         <v>536</v>
       </c>
-      <c r="L65" t="s">
+      <c r="L65" s="5" t="s">
         <v>589</v>
       </c>
-      <c r="M65" t="s">
+      <c r="M65" s="5" t="s">
         <v>589</v>
       </c>
-      <c r="N65" t="s">
+      <c r="N65" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="O65" t="s">
+      <c r="O65" s="3" t="s">
         <v>756</v>
       </c>
-      <c r="P65" t="s">
+      <c r="P65" s="3" t="s">
         <v>831</v>
       </c>
     </row>
-    <row r="66" spans="1:16">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>80</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="3" t="s">
         <v>167</v>
       </c>
       <c r="C66" t="s">
@@ -6398,7 +6446,7 @@
       <c r="D66" t="s">
         <v>279</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E66" s="5" t="s">
         <v>362</v>
       </c>
       <c r="F66" t="s">
@@ -6416,30 +6464,30 @@
       <c r="J66" t="s">
         <v>482</v>
       </c>
-      <c r="K66" t="s">
+      <c r="K66" s="5" t="s">
         <v>537</v>
       </c>
-      <c r="L66" t="s">
+      <c r="L66" s="5" t="s">
         <v>537</v>
       </c>
-      <c r="M66" t="s">
+      <c r="M66" s="5" t="s">
         <v>537</v>
       </c>
-      <c r="N66" t="s">
+      <c r="N66" s="5" t="s">
         <v>678</v>
       </c>
-      <c r="O66" t="s">
+      <c r="O66" s="3" t="s">
         <v>757</v>
       </c>
-      <c r="P66" t="s">
+      <c r="P66" s="3" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="67" spans="1:16">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>81</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="3" t="s">
         <v>168</v>
       </c>
       <c r="C67" t="s">
@@ -6448,7 +6496,7 @@
       <c r="D67" t="s">
         <v>280</v>
       </c>
-      <c r="E67" t="s">
+      <c r="E67" s="5" t="s">
         <v>363</v>
       </c>
       <c r="F67" t="s">
@@ -6466,30 +6514,30 @@
       <c r="J67" t="s">
         <v>482</v>
       </c>
-      <c r="K67" t="s">
+      <c r="K67" s="5" t="s">
         <v>538</v>
       </c>
-      <c r="L67" t="s">
+      <c r="L67" s="5" t="s">
         <v>538</v>
       </c>
-      <c r="M67" t="s">
+      <c r="M67" s="5" t="s">
         <v>538</v>
       </c>
-      <c r="N67" t="s">
+      <c r="N67" s="5" t="s">
         <v>679</v>
       </c>
-      <c r="O67" t="s">
+      <c r="O67" s="3" t="s">
         <v>758</v>
       </c>
-      <c r="P67" t="s">
+      <c r="P67" s="3" t="s">
         <v>833</v>
       </c>
     </row>
-    <row r="68" spans="1:16">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>82</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="3" t="s">
         <v>169</v>
       </c>
       <c r="C68" t="s">
@@ -6498,7 +6546,7 @@
       <c r="D68" t="s">
         <v>281</v>
       </c>
-      <c r="E68" t="s">
+      <c r="E68" s="5" t="s">
         <v>364</v>
       </c>
       <c r="F68" t="s">
@@ -6516,30 +6564,30 @@
       <c r="J68" t="s">
         <v>483</v>
       </c>
-      <c r="K68" t="s">
+      <c r="K68" s="5" t="s">
         <v>539</v>
       </c>
-      <c r="L68" t="s">
+      <c r="L68" s="5" t="s">
         <v>590</v>
       </c>
-      <c r="M68" t="s">
+      <c r="M68" s="5" t="s">
         <v>619</v>
       </c>
-      <c r="N68" t="s">
+      <c r="N68" s="5" t="s">
         <v>680</v>
       </c>
-      <c r="O68" t="s">
+      <c r="O68" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="P68" t="s">
+      <c r="P68" s="3" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="69" spans="1:16">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>83</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="3" t="s">
         <v>170</v>
       </c>
       <c r="C69" t="s">
@@ -6548,7 +6596,7 @@
       <c r="D69" t="s">
         <v>282</v>
       </c>
-      <c r="E69" t="s">
+      <c r="E69" s="5" t="s">
         <v>365</v>
       </c>
       <c r="F69" t="s">
@@ -6566,30 +6614,30 @@
       <c r="J69" t="s">
         <v>482</v>
       </c>
-      <c r="K69" t="s">
+      <c r="K69" s="5" t="s">
         <v>540</v>
       </c>
-      <c r="L69" t="s">
+      <c r="L69" s="5" t="s">
         <v>540</v>
       </c>
-      <c r="M69" t="s">
+      <c r="M69" s="5" t="s">
         <v>540</v>
       </c>
-      <c r="N69" t="s">
+      <c r="N69" s="5" t="s">
         <v>681</v>
       </c>
-      <c r="O69" t="s">
+      <c r="O69" s="3" t="s">
         <v>760</v>
       </c>
-      <c r="P69" t="s">
+      <c r="P69" s="3" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="70" spans="1:16">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>84</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="3" t="s">
         <v>171</v>
       </c>
       <c r="C70" t="s">
@@ -6598,7 +6646,7 @@
       <c r="D70" t="s">
         <v>283</v>
       </c>
-      <c r="E70" t="s">
+      <c r="E70" s="5" t="s">
         <v>366</v>
       </c>
       <c r="F70" t="s">
@@ -6616,30 +6664,30 @@
       <c r="J70" t="s">
         <v>482</v>
       </c>
-      <c r="K70" t="s">
+      <c r="K70" s="5" t="s">
         <v>501</v>
       </c>
-      <c r="L70" t="s">
+      <c r="L70" s="5" t="s">
         <v>501</v>
       </c>
-      <c r="M70" t="s">
+      <c r="M70" s="5" t="s">
         <v>501</v>
       </c>
-      <c r="N70" t="s">
+      <c r="N70" s="5" t="s">
         <v>682</v>
       </c>
-      <c r="O70" t="s">
+      <c r="O70" s="3" t="s">
         <v>761</v>
       </c>
-      <c r="P70" t="s">
+      <c r="P70" s="3" t="s">
         <v>836</v>
       </c>
     </row>
-    <row r="71" spans="1:16">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>85</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="3" t="s">
         <v>172</v>
       </c>
       <c r="C71" t="s">
@@ -6648,7 +6696,7 @@
       <c r="D71" t="s">
         <v>284</v>
       </c>
-      <c r="E71" t="s">
+      <c r="E71" s="5" t="s">
         <v>367</v>
       </c>
       <c r="F71" t="s">
@@ -6666,30 +6714,30 @@
       <c r="J71" t="s">
         <v>482</v>
       </c>
-      <c r="K71" t="s">
+      <c r="K71" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="L71" t="s">
+      <c r="L71" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="M71" t="s">
+      <c r="M71" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="N71" t="s">
+      <c r="N71" s="5" t="s">
         <v>627</v>
       </c>
-      <c r="O71" t="s">
+      <c r="O71" s="3" t="s">
         <v>762</v>
       </c>
-      <c r="P71" t="s">
+      <c r="P71" s="3" t="s">
         <v>837</v>
       </c>
     </row>
-    <row r="72" spans="1:16">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>86</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="3" t="s">
         <v>173</v>
       </c>
       <c r="C72" t="s">
@@ -6698,7 +6746,7 @@
       <c r="D72" t="s">
         <v>285</v>
       </c>
-      <c r="E72" t="s">
+      <c r="E72" s="5" t="s">
         <v>368</v>
       </c>
       <c r="F72" t="s">
@@ -6716,30 +6764,30 @@
       <c r="J72" t="s">
         <v>482</v>
       </c>
-      <c r="K72" t="s">
+      <c r="K72" s="5" t="s">
         <v>542</v>
       </c>
-      <c r="L72" t="s">
+      <c r="L72" s="5" t="s">
         <v>542</v>
       </c>
-      <c r="M72" t="s">
+      <c r="M72" s="5" t="s">
         <v>542</v>
       </c>
-      <c r="N72" t="s">
+      <c r="N72" s="5" t="s">
         <v>683</v>
       </c>
-      <c r="O72" t="s">
+      <c r="O72" s="3" t="s">
         <v>763</v>
       </c>
-      <c r="P72" t="s">
+      <c r="P72" s="3" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="73" spans="1:16">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>87</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="3" t="s">
         <v>174</v>
       </c>
       <c r="C73" t="s">
@@ -6748,7 +6796,7 @@
       <c r="D73" t="s">
         <v>286</v>
       </c>
-      <c r="E73" t="s">
+      <c r="E73" s="5" t="s">
         <v>369</v>
       </c>
       <c r="F73" t="s">
@@ -6766,30 +6814,30 @@
       <c r="J73" t="s">
         <v>483</v>
       </c>
-      <c r="K73" t="s">
+      <c r="K73" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="L73" t="s">
+      <c r="L73" s="5" t="s">
         <v>591</v>
       </c>
-      <c r="M73" t="s">
+      <c r="M73" s="5" t="s">
         <v>620</v>
       </c>
-      <c r="N73" t="s">
+      <c r="N73" s="5" t="s">
         <v>684</v>
       </c>
-      <c r="O73" t="s">
+      <c r="O73" s="3" t="s">
         <v>764</v>
       </c>
-      <c r="P73" t="s">
+      <c r="P73" s="3" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="74" spans="1:16">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>88</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="3" t="s">
         <v>175</v>
       </c>
       <c r="C74" t="s">
@@ -6798,7 +6846,7 @@
       <c r="D74" t="s">
         <v>287</v>
       </c>
-      <c r="E74" t="s">
+      <c r="E74" s="5" t="s">
         <v>370</v>
       </c>
       <c r="F74" t="s">
@@ -6816,30 +6864,30 @@
       <c r="J74" t="s">
         <v>483</v>
       </c>
-      <c r="K74" t="s">
+      <c r="K74" s="5" t="s">
         <v>544</v>
       </c>
-      <c r="L74" t="s">
+      <c r="L74" s="5" t="s">
         <v>592</v>
       </c>
-      <c r="M74" t="s">
+      <c r="M74" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="N74" t="s">
+      <c r="N74" s="5" t="s">
         <v>685</v>
       </c>
-      <c r="O74" t="s">
+      <c r="O74" s="3" t="s">
         <v>765</v>
       </c>
-      <c r="P74" t="s">
+      <c r="P74" s="3" t="s">
         <v>840</v>
       </c>
     </row>
-    <row r="75" spans="1:16">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>89</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="3" t="s">
         <v>176</v>
       </c>
       <c r="C75" t="s">
@@ -6848,7 +6896,7 @@
       <c r="D75" t="s">
         <v>288</v>
       </c>
-      <c r="E75" t="s">
+      <c r="E75" s="5" t="s">
         <v>371</v>
       </c>
       <c r="F75" t="s">
@@ -6866,30 +6914,30 @@
       <c r="J75" t="s">
         <v>482</v>
       </c>
-      <c r="K75" t="s">
+      <c r="K75" s="5" t="s">
         <v>545</v>
       </c>
-      <c r="L75" t="s">
+      <c r="L75" s="5" t="s">
         <v>593</v>
       </c>
-      <c r="M75" t="s">
+      <c r="M75" s="5" t="s">
         <v>593</v>
       </c>
-      <c r="N75" t="s">
+      <c r="N75" s="5" t="s">
         <v>686</v>
       </c>
-      <c r="O75" t="s">
+      <c r="O75" s="3" t="s">
         <v>766</v>
       </c>
-      <c r="P75" t="s">
+      <c r="P75" s="3" t="s">
         <v>841</v>
       </c>
     </row>
-    <row r="76" spans="1:16">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>90</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="3" t="s">
         <v>177</v>
       </c>
       <c r="C76" t="s">
@@ -6898,7 +6946,7 @@
       <c r="D76" t="s">
         <v>289</v>
       </c>
-      <c r="E76" t="s">
+      <c r="E76" s="5" t="s">
         <v>372</v>
       </c>
       <c r="F76" t="s">
@@ -6916,30 +6964,30 @@
       <c r="J76" t="s">
         <v>483</v>
       </c>
-      <c r="K76" t="s">
+      <c r="K76" s="5" t="s">
         <v>546</v>
       </c>
-      <c r="L76" t="s">
+      <c r="L76" s="5" t="s">
         <v>594</v>
       </c>
-      <c r="M76" t="s">
+      <c r="M76" s="5" t="s">
         <v>622</v>
       </c>
-      <c r="N76" t="s">
+      <c r="N76" s="5" t="s">
         <v>687</v>
       </c>
-      <c r="O76" t="s">
+      <c r="O76" s="3" t="s">
         <v>767</v>
       </c>
-      <c r="P76" t="s">
+      <c r="P76" s="3" t="s">
         <v>842</v>
       </c>
     </row>
-    <row r="77" spans="1:16">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>91</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="3" t="s">
         <v>178</v>
       </c>
       <c r="C77" t="s">
@@ -6948,7 +6996,7 @@
       <c r="D77" t="s">
         <v>290</v>
       </c>
-      <c r="E77" t="s">
+      <c r="E77" s="5" t="s">
         <v>373</v>
       </c>
       <c r="F77" t="s">
@@ -6966,30 +7014,30 @@
       <c r="J77" t="s">
         <v>482</v>
       </c>
-      <c r="K77" t="s">
+      <c r="K77" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="L77" t="s">
+      <c r="L77" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="M77" t="s">
+      <c r="M77" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="N77" t="s">
+      <c r="N77" s="5" t="s">
         <v>688</v>
       </c>
-      <c r="O77" t="s">
+      <c r="O77" s="3" t="s">
         <v>768</v>
       </c>
-      <c r="P77" t="s">
+      <c r="P77" s="3" t="s">
         <v>843</v>
       </c>
     </row>
-    <row r="78" spans="1:16">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>92</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="3" t="s">
         <v>179</v>
       </c>
       <c r="C78" t="s">
@@ -6998,7 +7046,7 @@
       <c r="D78" t="s">
         <v>291</v>
       </c>
-      <c r="E78" t="s">
+      <c r="E78" s="5" t="s">
         <v>374</v>
       </c>
       <c r="F78" t="s">
@@ -7016,30 +7064,30 @@
       <c r="J78" t="s">
         <v>482</v>
       </c>
-      <c r="K78" t="s">
+      <c r="K78" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="L78" t="s">
+      <c r="L78" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="M78" t="s">
+      <c r="M78" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="N78" t="s">
+      <c r="N78" s="5" t="s">
         <v>689</v>
       </c>
-      <c r="O78" t="s">
+      <c r="O78" s="3" t="s">
         <v>769</v>
       </c>
-      <c r="P78" t="s">
+      <c r="P78" s="3" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="79" spans="1:16">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>93</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="3" t="s">
         <v>180</v>
       </c>
       <c r="C79" t="s">
@@ -7048,7 +7096,7 @@
       <c r="D79" t="s">
         <v>292</v>
       </c>
-      <c r="E79" t="s">
+      <c r="E79" s="5" t="s">
         <v>375</v>
       </c>
       <c r="F79" t="s">
@@ -7066,30 +7114,30 @@
       <c r="J79" t="s">
         <v>483</v>
       </c>
-      <c r="K79" t="s">
+      <c r="K79" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="L79" t="s">
+      <c r="L79" s="5" t="s">
         <v>595</v>
       </c>
-      <c r="M79" t="s">
+      <c r="M79" s="5" t="s">
         <v>595</v>
       </c>
-      <c r="N79" t="s">
+      <c r="N79" s="5" t="s">
         <v>690</v>
       </c>
-      <c r="O79" t="s">
+      <c r="O79" s="3" t="s">
         <v>770</v>
       </c>
-      <c r="P79" t="s">
+      <c r="P79" s="3" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="80" spans="1:16">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>94</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="3" t="s">
         <v>181</v>
       </c>
       <c r="C80" t="s">
@@ -7098,7 +7146,7 @@
       <c r="D80" t="s">
         <v>293</v>
       </c>
-      <c r="E80" t="s">
+      <c r="E80" s="5" t="s">
         <v>376</v>
       </c>
       <c r="F80" t="s">
@@ -7116,30 +7164,30 @@
       <c r="J80" t="s">
         <v>482</v>
       </c>
-      <c r="K80" t="s">
+      <c r="K80" s="5" t="s">
         <v>550</v>
       </c>
-      <c r="L80" t="s">
+      <c r="L80" s="5" t="s">
         <v>550</v>
       </c>
-      <c r="M80" t="s">
+      <c r="M80" s="5" t="s">
         <v>550</v>
       </c>
-      <c r="N80" t="s">
+      <c r="N80" s="5" t="s">
         <v>691</v>
       </c>
-      <c r="O80" t="s">
+      <c r="O80" s="3" t="s">
         <v>768</v>
       </c>
-      <c r="P80" t="s">
+      <c r="P80" s="3" t="s">
         <v>843</v>
       </c>
     </row>
-    <row r="81" spans="1:16">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>95</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="3" t="s">
         <v>182</v>
       </c>
       <c r="C81" t="s">
@@ -7148,7 +7196,7 @@
       <c r="D81" t="s">
         <v>294</v>
       </c>
-      <c r="E81" t="s">
+      <c r="E81" s="5" t="s">
         <v>377</v>
       </c>
       <c r="F81" t="s">
@@ -7166,30 +7214,30 @@
       <c r="J81" t="s">
         <v>482</v>
       </c>
-      <c r="K81" t="s">
+      <c r="K81" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="L81" t="s">
+      <c r="L81" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="M81" t="s">
+      <c r="M81" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="N81" t="s">
+      <c r="N81" s="5" t="s">
         <v>630</v>
       </c>
-      <c r="O81" t="s">
+      <c r="O81" s="3" t="s">
         <v>698</v>
       </c>
-      <c r="P81" t="s">
+      <c r="P81" s="3" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="82" spans="1:16">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>96</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="3" t="s">
         <v>183</v>
       </c>
       <c r="C82" t="s">
@@ -7198,7 +7246,7 @@
       <c r="D82" t="s">
         <v>295</v>
       </c>
-      <c r="E82" t="s">
+      <c r="E82" s="5" t="s">
         <v>378</v>
       </c>
       <c r="F82" t="s">
@@ -7216,30 +7264,30 @@
       <c r="J82" t="s">
         <v>482</v>
       </c>
-      <c r="K82" t="s">
+      <c r="K82" s="5" t="s">
         <v>551</v>
       </c>
-      <c r="L82" t="s">
+      <c r="L82" s="5" t="s">
         <v>551</v>
       </c>
-      <c r="M82" t="s">
+      <c r="M82" s="5" t="s">
         <v>551</v>
       </c>
-      <c r="N82" t="s">
+      <c r="N82" s="5" t="s">
         <v>692</v>
       </c>
-      <c r="O82" t="s">
+      <c r="O82" s="3" t="s">
         <v>771</v>
       </c>
-      <c r="P82" t="s">
+      <c r="P82" s="3" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="83" spans="1:16">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>97</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="3" t="s">
         <v>184</v>
       </c>
       <c r="C83" t="s">
@@ -7248,7 +7296,7 @@
       <c r="D83" t="s">
         <v>296</v>
       </c>
-      <c r="E83" t="s">
+      <c r="E83" s="5" t="s">
         <v>379</v>
       </c>
       <c r="F83" t="s">
@@ -7266,30 +7314,30 @@
       <c r="J83" t="s">
         <v>483</v>
       </c>
-      <c r="K83" t="s">
+      <c r="K83" s="5" t="s">
         <v>552</v>
       </c>
-      <c r="L83" t="s">
+      <c r="L83" s="5" t="s">
         <v>596</v>
       </c>
-      <c r="M83" t="s">
+      <c r="M83" s="5" t="s">
         <v>623</v>
       </c>
-      <c r="N83" t="s">
+      <c r="N83" s="5" t="s">
         <v>693</v>
       </c>
-      <c r="O83" t="s">
+      <c r="O83" s="3" t="s">
         <v>772</v>
       </c>
-      <c r="P83" t="s">
+      <c r="P83" s="3" t="s">
         <v>847</v>
       </c>
     </row>
-    <row r="84" spans="1:16">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>98</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="3" t="s">
         <v>185</v>
       </c>
       <c r="C84" t="s">
@@ -7298,7 +7346,7 @@
       <c r="D84" t="s">
         <v>297</v>
       </c>
-      <c r="E84" t="s">
+      <c r="E84" s="5" t="s">
         <v>380</v>
       </c>
       <c r="F84" t="s">
@@ -7316,30 +7364,30 @@
       <c r="J84" t="s">
         <v>483</v>
       </c>
-      <c r="K84" t="s">
+      <c r="K84" s="5" t="s">
         <v>553</v>
       </c>
-      <c r="L84" t="s">
+      <c r="L84" s="5" t="s">
         <v>553</v>
       </c>
-      <c r="M84" t="s">
+      <c r="M84" s="5" t="s">
         <v>553</v>
       </c>
-      <c r="N84" t="s">
+      <c r="N84" s="5" t="s">
         <v>627</v>
       </c>
-      <c r="O84" t="s">
+      <c r="O84" s="3" t="s">
         <v>773</v>
       </c>
-      <c r="P84" t="s">
+      <c r="P84" s="3" t="s">
         <v>848</v>
       </c>
     </row>
-    <row r="85" spans="1:16">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>99</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="3" t="s">
         <v>186</v>
       </c>
       <c r="C85" t="s">
@@ -7348,7 +7396,7 @@
       <c r="D85" t="s">
         <v>298</v>
       </c>
-      <c r="E85" t="s">
+      <c r="E85" s="5" t="s">
         <v>381</v>
       </c>
       <c r="F85" t="s">
@@ -7366,30 +7414,30 @@
       <c r="J85" t="s">
         <v>482</v>
       </c>
-      <c r="K85" t="s">
+      <c r="K85" s="5" t="s">
         <v>554</v>
       </c>
-      <c r="L85" t="s">
+      <c r="L85" s="5" t="s">
         <v>554</v>
       </c>
-      <c r="M85" t="s">
+      <c r="M85" s="5" t="s">
         <v>554</v>
       </c>
-      <c r="N85" t="s">
+      <c r="N85" s="5" t="s">
         <v>694</v>
       </c>
-      <c r="O85" t="s">
+      <c r="O85" s="3" t="s">
         <v>774</v>
       </c>
-      <c r="P85" t="s">
+      <c r="P85" s="3" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="86" spans="1:16">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>100</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="3" t="s">
         <v>187</v>
       </c>
       <c r="C86" t="s">
@@ -7398,7 +7446,7 @@
       <c r="D86" t="s">
         <v>299</v>
       </c>
-      <c r="E86" t="s">
+      <c r="E86" s="5" t="s">
         <v>382</v>
       </c>
       <c r="F86" t="s">
@@ -7416,30 +7464,30 @@
       <c r="J86" t="s">
         <v>482</v>
       </c>
-      <c r="K86" t="s">
+      <c r="K86" s="5" t="s">
         <v>555</v>
       </c>
-      <c r="L86" t="s">
+      <c r="L86" s="5" t="s">
         <v>555</v>
       </c>
-      <c r="M86" t="s">
+      <c r="M86" s="5" t="s">
         <v>555</v>
       </c>
-      <c r="N86" t="s">
+      <c r="N86" s="5" t="s">
         <v>695</v>
       </c>
-      <c r="O86" t="s">
+      <c r="O86" s="3" t="s">
         <v>775</v>
       </c>
-      <c r="P86" t="s">
+      <c r="P86" s="3" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="87" spans="1:16">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>101</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="3" t="s">
         <v>188</v>
       </c>
       <c r="C87" t="s">
@@ -7448,7 +7496,7 @@
       <c r="D87" t="s">
         <v>300</v>
       </c>
-      <c r="E87" t="s">
+      <c r="E87" s="5" t="s">
         <v>383</v>
       </c>
       <c r="F87" t="s">
@@ -7466,30 +7514,30 @@
       <c r="J87" t="s">
         <v>482</v>
       </c>
-      <c r="K87" t="s">
+      <c r="K87" s="5" t="s">
         <v>556</v>
       </c>
-      <c r="L87" t="s">
+      <c r="L87" s="5" t="s">
         <v>556</v>
       </c>
-      <c r="M87" t="s">
+      <c r="M87" s="5" t="s">
         <v>556</v>
       </c>
-      <c r="N87" t="s">
+      <c r="N87" s="5" t="s">
         <v>696</v>
       </c>
-      <c r="O87" t="s">
+      <c r="O87" s="3" t="s">
         <v>776</v>
       </c>
-      <c r="P87" t="s">
+      <c r="P87" s="3" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="88" spans="1:16">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>102</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="3" t="s">
         <v>189</v>
       </c>
       <c r="C88" t="s">
@@ -7498,7 +7546,7 @@
       <c r="D88" t="s">
         <v>301</v>
       </c>
-      <c r="E88" t="s">
+      <c r="E88" s="5" t="s">
         <v>384</v>
       </c>
       <c r="F88" t="s">
@@ -7516,26 +7564,27 @@
       <c r="J88" t="s">
         <v>482</v>
       </c>
-      <c r="K88" t="s">
+      <c r="K88" s="5" t="s">
         <v>557</v>
       </c>
-      <c r="L88" t="s">
+      <c r="L88" s="5" t="s">
         <v>557</v>
       </c>
-      <c r="M88" t="s">
+      <c r="M88" s="5" t="s">
         <v>557</v>
       </c>
-      <c r="N88" t="s">
+      <c r="N88" s="5" t="s">
         <v>697</v>
       </c>
-      <c r="O88" t="s">
+      <c r="O88" s="3" t="s">
         <v>777</v>
       </c>
-      <c r="P88" t="s">
+      <c r="P88" s="3" t="s">
         <v>852</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>